--- a/DexData.xlsx
+++ b/DexData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="314">
   <si>
     <t>Opportunity</t>
   </si>
@@ -72,7 +72,7 @@
     <t>DEXTERITY TO COLLEGE (D2C) GRADUATE FELLOWSHIP</t>
   </si>
   <si>
-    <t>Current undergraduates and young professionals with an undergraduate degree are eligible for Dexterity to College (D2C) Graduate Fellowship. Students undergo multiple fellowship modules that enable them to have a deep understanding of the college admissions process, timelines and deadlines, testing requirements, admissions interviews, college essays, scholarships, financial aid and the overall preparation and approach.</t>
+    <t>Current GRADUATES and young professionals with an undergraduate degree are eligible for Dexterity to College (D2C) Graduate Fellowship. Students undergo multiple fellowship modules that enable them to have a deep understanding of the college admissions process, timelines and deadlines, testing requirements, admissions interviews, college essays, scholarships, financial aid and the overall preparation and approach.</t>
   </si>
   <si>
     <t>COLLEGE STUDENTS</t>
@@ -189,7 +189,7 @@
     <t>The Institute of Chartered Accountants of India (ICAI) is inviting school students of classes 9 through 12 and B.Com/BBA/BMS/Allied Subjects to participate in its Commerce Talent Search Test called Commerce Wizard. Candidates first write Level I online test followed by a Level II on-site test. National winners will receive several lakhs in prize money by the ICAI and will be felicitated at an awards ceremony in February 2020.</t>
   </si>
   <si>
-    <t>HIGH SCHOOL STUDENTS &amp; UNDERGRADUATES</t>
+    <t>HIGH SCHOOL STUDENTS, GRADUATES</t>
   </si>
   <si>
     <t>Syllabus for Class X: bit.ly/icaiprep,Syllabus for Class XII: bit.ly/icaiprep1,Syllabus for College: bit.ly/icaiprep2</t>
@@ -246,7 +246,7 @@
     <t>US Department of State is inviting applications from undergraduate students who will have at least one semester of undergraduate studies remaining after 2020. Admitted students will receive a one-semester scholarship at a college in the US for a non-degree full-time study combined with community service and personal development opportunities.</t>
   </si>
   <si>
-    <t>UNDERGRADUATES</t>
+    <t>GRADUATES</t>
   </si>
   <si>
     <t>Harvard Guide to Resume and Cover Letters: bit.ly/resumeprep1,MIT Guide to Writing Statements of Purpose: bit.ly/essayprep1</t>
@@ -270,7 +270,7 @@
     <t>The year-long program prepares young people to become leaders of change in their communities through leadership development, global citizenship, and vision planning. All participants receive a fully-funded trip to the summer retreat in the United States. Online applications will be followed by telephonic interviews.</t>
   </si>
   <si>
-    <t>HIGH SCHOOL GRADUATES, COLLEGE STUDENTS, UNDERGRADUATES, POST GRADUATES</t>
+    <t>HIGH SCHOOL GRADUATES, COLLEGE STUDENTS, GRADUATES, POST GRADUATES</t>
   </si>
   <si>
     <t>https://mcwglobal.org/2020-young-leaders-access-program/</t>
@@ -294,7 +294,7 @@
     <t>The UNESCO Youth Eyes on the Silk Road Photo Contest invites participants to submit photographs that best encapsulate the shared heritage of the Silk Roads through one or more of the provided themes. The contest is divided into two age categories: 14-17 year olds and 18-25 year olds. Winners will receive professional cameras along with a fully funded trip to the award ceremony in China.</t>
   </si>
   <si>
-    <t>HIGH SCHOOL STUDENTS, HIGH SCHOOL GRADUATE, COLLEGE STUDENT, UNDERGRADUATES</t>
+    <t>HIGH SCHOOL STUDENTS, HIGH SCHOOL GRADUATE, COLLEGE STUDENT, GRADUATES</t>
   </si>
   <si>
     <t>https://unescosilkroadphotocontest.org/en/node/14</t>
@@ -429,9 +429,6 @@
     <t>Geek For Geeks Scholarship</t>
   </si>
   <si>
-    <t>SCHOOL &amp; COLLEGE STUDENTS</t>
-  </si>
-  <si>
     <t>https://practice.geeksforgeeks.org/contest/scholarships-test-placement-100</t>
   </si>
   <si>
@@ -561,9 +558,6 @@
     <t>Merit Cum Means Based Scholarship</t>
   </si>
   <si>
-    <t>HIGH SCHOOL GRADUATE</t>
-  </si>
-  <si>
     <t>https://in.search.yahoo.com/search?fr=mcafee&amp;type=E211IN714G0&amp;p=merit+cum+means+based+scholarship</t>
   </si>
   <si>
@@ -627,7 +621,7 @@
     <t>Participants are invited to offer creative and innovative solutions to one of the ten design problems given in the challenge. Participants can also choose to work on more than one area. Winning entries will be published online, printed as a book and will be displayed in a travelling exhibition.</t>
   </si>
   <si>
-    <t>COLLEGE STUDENTS, UNDERGRADUATEs</t>
+    <t>COLLEGE STUDENTS, GRADUATES</t>
   </si>
   <si>
     <t>MIT’s Guide on Essentials of Design: bit.ly/mitdesignessentials</t>
@@ -1022,7 +1016,7 @@
     <numFmt numFmtId="166" formatCode="mmm d,yyyy"/>
     <numFmt numFmtId="167" formatCode="mmmm d, yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1032,9 +1026,6 @@
       <b/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
     </font>
     <font>
       <color theme="1"/>
@@ -1065,47 +1056,35 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1340,7 +1319,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1378,2122 +1357,2122 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>43830.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>43830.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>43814.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>44180.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>44180.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="4">
         <v>0.0</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>44180.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="4">
         <v>0.0</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>44180.0</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="4">
         <v>0.0</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>44180.0</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="4">
         <v>0.0</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>44180.0</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="4">
         <v>0.0</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>44180.0</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="4">
         <v>0.0</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>44180.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="D13" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>44180.0</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="D14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>44180.0</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="D15" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>44196.0</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="D16" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>43835.0</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D17" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="4">
         <v>0.0</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>43835.0</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="D18" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>43835.0</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="D19" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>43835.0</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="4">
         <v>0.0</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>43840.0</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="4">
         <v>0.0</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>43843.0</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="4">
         <v>0.0</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>43845.0</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="D23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="4">
         <v>0.0</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>43850.0</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="D24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="4">
         <v>0.0</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>43856.0</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="D25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <v>43941.0</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="D26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>43894.0</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="D27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <v>43950.0</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="D28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <v>43876.0</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="D29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="9">
         <v>44154.0</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="D30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="6">
         <v>44190.0</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="D31" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="6">
         <v>44067.0</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E32" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="6">
+        <v>44004.0</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H32" s="12">
-        <v>44004.0</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
+      <c r="G33" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="6">
+        <v>44096.0</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="6">
+        <v>44013.0</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="6">
+        <v>44013.0</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="6">
+        <v>44013.0</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" s="6">
+        <v>44013.0</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="6">
+        <v>43845.0</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" s="6">
+        <v>43888.0</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" s="6">
+        <v>44038.0</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="6">
+        <v>44012.0</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H42" s="11">
+        <v>43980.0</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H43" s="11">
+        <v>43961.0</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" s="11">
+        <v>43966.0</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H45" s="11">
+        <v>43982.0</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H46" s="6">
+        <v>44028.0</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H47" s="9">
+        <v>44022.0</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" s="6">
+        <v>44026.0</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H49" s="6">
+        <v>43997.0</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H50" s="6">
+        <v>44002.0</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H51" s="11">
+        <v>43966.0</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H52" s="11">
+        <v>43966.0</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H53" s="11">
+        <v>43966.0</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H54" s="11">
+        <v>43966.0</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" s="11">
+        <v>43970.0</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="12">
-        <v>44096.0</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
+      <c r="D56" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H56" s="11">
+        <v>43971.0</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H34" s="12">
-        <v>44013.0</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5" t="s">
+      <c r="D57" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H57" s="11">
+        <v>43971.0</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H58" s="11">
+        <v>43971.0</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H59" s="11">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H60" s="11">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H61" s="11">
+        <v>43973.0</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H62" s="11">
+        <v>43975.0</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H63" s="11">
+        <v>43975.0</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H64" s="11">
+        <v>43979.0</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H65" s="11">
+        <v>43979.0</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H66" s="11">
+        <v>43982.0</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H67" s="11">
+        <v>43982.0</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H35" s="12">
-        <v>44013.0</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
+      <c r="D68" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H68" s="11">
+        <v>43982.0</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H69" s="8">
+        <v>43983.0</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H70" s="8">
+        <v>43986.0</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H71" s="8">
+        <v>43987.0</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H72" s="8">
+        <v>43990.0</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H73" s="6">
+        <v>43997.0</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H36" s="12">
-        <v>44013.0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
+      <c r="D74" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H74" s="6">
+        <v>43999.0</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37" s="12">
-        <v>44013.0</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="D75" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H75" s="6">
+        <v>44001.0</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E76" s="4">
         <v>0.0</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H38" s="12">
-        <v>43845.0</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H39" s="12">
-        <v>43888.0</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E40" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H40" s="12">
-        <v>44038.0</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41" s="12">
+      <c r="F76" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H76" s="6">
+        <v>44001.0</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H77" s="6">
+        <v>44002.0</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H78" s="6">
         <v>44012.0</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H42" s="14">
-        <v>43980.0</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H43" s="14">
-        <v>43961.0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E44" s="5">
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H79" s="6">
+        <v>44012.0</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E80" s="4">
         <v>0.0</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H44" s="14">
-        <v>43966.0</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="F80" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H80" s="6">
+        <v>44012.0</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H81" s="6">
+        <v>44012.0</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H82" s="6">
+        <v>44012.0</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E83" s="4">
         <v>0.0</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H45" s="14">
-        <v>43982.0</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E46" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H46" s="12">
-        <v>44028.0</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E47" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H47" s="11">
-        <v>44022.0</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E48" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H48" s="12">
-        <v>44026.0</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E49" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H49" s="12">
-        <v>43997.0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5" t="s">
+      <c r="F83" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H83" s="6">
+        <v>44012.0</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E50" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H50" s="12">
-        <v>44002.0</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E51" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H51" s="14">
-        <v>43966.0</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="D84" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H84" s="6">
+        <v>44012.0</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H52" s="14">
-        <v>43966.0</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E53" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H53" s="14">
-        <v>43966.0</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D54" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E54" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H54" s="14">
-        <v>43966.0</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D55" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E55" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H55" s="14">
-        <v>43970.0</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E56" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H56" s="14">
-        <v>43971.0</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E57" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H57" s="14">
-        <v>43971.0</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E58" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H58" s="14">
-        <v>43971.0</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D59" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E59" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H59" s="14">
-        <v>43973.0</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E60" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H60" s="14">
-        <v>43973.0</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E61" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H61" s="14">
-        <v>43973.0</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E62" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="H62" s="14">
-        <v>43975.0</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E63" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H63" s="14">
-        <v>43975.0</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E64" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H64" s="14">
-        <v>43979.0</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E65" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H65" s="14">
-        <v>43979.0</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E66" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H66" s="14">
-        <v>43982.0</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E67" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="H67" s="14">
-        <v>43982.0</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E68" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H68" s="14">
-        <v>43982.0</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E69" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H69" s="15">
-        <v>43983.0</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D70" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E70" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H70" s="15">
-        <v>43986.0</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E71" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H71" s="15">
-        <v>43987.0</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E72" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H72" s="15">
-        <v>43990.0</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E73" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H73" s="12">
-        <v>43997.0</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D74" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E74" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H74" s="12">
-        <v>43999.0</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E75" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="H75" s="12">
-        <v>44001.0</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E76" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="H76" s="12">
-        <v>44001.0</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E77" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H77" s="12">
-        <v>44002.0</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D78" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E78" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H78" s="12">
-        <v>44012.0</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E79" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="H79" s="12">
-        <v>44012.0</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D80" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E80" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="H80" s="12">
-        <v>44012.0</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E81" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="H81" s="12">
-        <v>44012.0</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E82" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H82" s="12">
-        <v>44012.0</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D83" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E83" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="H83" s="12">
-        <v>44012.0</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D84" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E84" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="H84" s="12">
-        <v>44012.0</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="4" t="s">
+      <c r="D85" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="G85" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E85" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H85" s="12">
+      <c r="H85" s="6">
         <v>44012.0</v>
       </c>
     </row>
